--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -654,6 +654,2426 @@
       </c>
       <c r="J5" t="n">
         <v>201</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1025469</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Общая концентрация клеток в плевральной жидкости</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Цитоз</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>17750</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1025469</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Цитоз, общая концентрация клеток в плевральной жидкости </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1/мкл</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1025493</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Количество в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Эритроциты</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>18062</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1025493</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Эритроциты, количество в плевральной жидкости методом ручного подсчёта </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1/мкл; 10^6/л</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1025584</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Абсолютное количество в плевральной жидкости методом автоматического подсчёта</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Лейкоциты</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>11092</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1025584</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Лейкоциты, абсолютное количество в плевральной жидкости</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10^3/мкл; 10^9/л</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1025618</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Абсолютное количество на 100 клеток в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Клетки мезотелия</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>10478</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1025618</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Клетки мезотелия, абсолютное количество на 100 клеток в плевральной жидкости методом ручного подсчёта </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10^3/мкл; 10^9/л</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1025642</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Относительное количество на 100 клеток в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Клетки мезотелия</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>10481</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1025642</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Клетки мезотелия, относительное количество на 100 клеток в плевральной жидкости методом ручного подсчёта </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1025675</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Идентификация в плевральной жидкости методом световой микроскопии</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Кристаллы</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10938</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1025675</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кристаллы, идентификация в плевральной жидкости методом световой микроскопии </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1025709</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Абсолютное количество в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Лейкоциты остальные</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>11083</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1025709</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Лейкоциты остальные, абсолютное количество в плевральной жидкости методом ручного подсчёта </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>10^3/мкл; 10^9/л</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1025733</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Относительное количество на 100 лейкоцитов в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Лейкоциты остальные</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>11086</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1025733</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Лейкоциты остальные, относительное количество на 100 лейкоцитов в плевральной жидкости методом ручного подсчёта </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1025790</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Относительное количество на 100 клеток в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Гистиоциты</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>9025</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1025790</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Гистиоциты, относительное количество на 100 клеток в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1025824</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Абсолютное количество в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Макрофаги</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>11357</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1025824</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Макрофаги, абсолютное количество в плевральной жидкости методом ручного подсчёта </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10^3/мкл; 10^9/л</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1025857</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Относительное количество на 100 лейкоцитов в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Макрофаги</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>11366</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1025857</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Макрофаги, относительное количество на 100 лейкоцитов в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1025881</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Абсолютное количество в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Лимфоциты</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>11185</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1025881</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Лимфоциты, абсолютное количество в плевральной жидкости методом ручного подсчёта </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10^3/мкл; 10^9/л</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1025964</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Относительное количество на 100 лейкоцитов в перитонеальной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Эозинофилы</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>17969</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1025964</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Эозинофилы, относительное количество на 100 лейкоцитов в перитонеальной жидкости методом ручного подсчёта </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1025949</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Абсолютное количество в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Эозинофилы</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>17957</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1025949</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Эозинофилы, абсолютное количество в плевральной жидкости методом ручного подсчёта </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10^3/мкл; 10^9/л</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1026004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Абсолютное количество в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Нейтрофилы</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>13093</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1026004</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нейтрофилы, абсолютное количество в плевральной жидкости методом ручного подсчёта </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10^3/мкл; 10^9/л</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1026061</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Абсолютное количество в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Базофилы</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>7807</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1026061</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Базофилы, абсолютное количество в плевральной жидкости методом ручного подсчёта </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>10^3/мкл; 10^9/л</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1026103</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Относительное количество на 100 лейкоцитов в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Базофилы</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>7817</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1026103</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Базофилы, относительное количество на 100 лейкоцитов в плевральной жидкости методом ручного подсчёта</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1012285</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Массовая концентрация в сыворотке или плазме крови</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Нейрон-специфическая енолаза</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>13071</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1012285</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нейрон-специфическая енолаза, массовая концентрация в сыворотке или плазме крови </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>нг/мл</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1015783</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A09.05.196</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Массовая концентрация в сыворотке или плазме крови</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Антиген плоскоклеточной карциномы</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>5305</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1015783</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Антиген плоскоклеточной карциномы, массовая концентрация в сыворотке или плазме крови </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>нг/мл</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1045467</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A26.06.016</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Обнаружение в сыворотке крови</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Антитела IgM к Chlamydophila pneumoniae</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>6930</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1045467</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Антитела IgM к Chlamydophila pneumoniae, обнаружение в сыворотке крови </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1045418</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A26.06.018</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Обнаружение в сыворотке крови</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Антитела IgM к Chlamydia trachomatis</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>6929</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1045418</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Антитела IgM к Chlamydia trachomatis, обнаружение в сыворотке крови </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1048255</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Обнаружение в сыворотке крови</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Антитела IgA к Ureaplasma urealiticum</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>5360</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1048255</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Антитела IgA к Ureaplasma urealiticum, обнаружение в сыворотке крови </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1047646</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A26.06.057</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Обнаружение в сыворотке крови</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Антитела IgM к Mycoplasma pneumoniae</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>7045</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1047646</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Антитела IgM к Mycoplasma pneumoniae, обнаружение в сыворотке крови </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1162494</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Обнаружение в сыворотке крови</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Антитела IgA к Mycoplasma hominis</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>5353</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1162494</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Антитела IgA к Mycoplasma hominis, обнаружение в сыворотке крови </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1149848</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Обнаружение в крови </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Тропонин i сердечный</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>16079</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1149848</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Тропонин I сердечный, обнаружение в крови  </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1007087</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A09.05.006.001</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Обнаружение в сыворотке или плазме крови</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Миоглобин</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>12269</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1007087</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Миоглобин, обнаружение в сыворотке или плазме крови </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1140680</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Обнаружение в кале иммунологическим экспресс-тестом</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Антиген Rotavirus</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>5276</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1140680</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Антиген Rotavirus, обнаружение в кале иммунологическим экспресс-тестом </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1134543</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Обнаружение в кале методом иммуноферметного анализа</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Антиген Enterovirus</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>5167</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1134543</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Антиген Enterovirus, обнаружение в кале методом иммуноферметного анализа </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1140748</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Обнаружение в кале иммунологическим экспресс-тестом</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Антиген Norovirus</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>5235</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1140748</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Антиген Norovirus, обнаружение в кале иммунологическим экспресс-тестом</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1140813</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Обнаружение в кале иммунологическим экспресс-тестом</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Антиген Astrovirus</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>5119</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1140813</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Антиген Astrovirus, обнаружение в кале иммунологическим экспресс-тестом </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1132919</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Идентификация в мокроте культуральным методом</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>7858</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1132919</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в мокроте культуральным методом </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1137603</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Идентификация в отделяемом мочеполовых органов культуральным методом</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>7864</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1137603</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в отделяемом мочеполовых органов культуральным методом </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1137645</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Идентификация с миндалин культуральным методом</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>7884</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1137645</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация с миндалин культуральным методом </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1137884</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Идентификация из ротоглотки культуральным методом</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>7883</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1137884</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация из ротоглотки культуральным методом </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1137892</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Идентификация из носа культуральным методом</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>7882</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1137892</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация из носа культуральным методом </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1137900</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Идентификация в любой пробе культуральным методом</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>7855</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1137900</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в любой пробе культуральным методом </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1140235</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Идентификация в мокроте культуральным методом</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Грибковый микроорганизм</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>9173</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1140235</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Грибковый микроорганизм, идентификация в мокроте культуральным методом </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1140276</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Идентификация в моче культуральным методом</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Грибковый микроорганизм</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>9174</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1140276</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Грибковый микроорганизм, идентификация в моче культуральным методом </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1132950</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Идентификация в любой пробе культуральным методом</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Грибковый микроорганизм</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>9172</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1132950</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Грибковый микроорганизм, идентификация в любой пробе культуральным методом </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1137983</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Идентификация в молоке культуральным методом</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>7860</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1137983</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в молоке культуральным методом </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1137207</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Идентификация в цереброспинальной жидкости культуральным методом</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>7881</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1137207</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в цереброспинальной жидкости культуральным методом </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1137280</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Идентификация в отделяемом наружного уха методом аэробной культуры</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>7866</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1137280</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в отделяемом наружного уха методом аэробной культуры </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1137322</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Идентификация в плевральной жидкости культуральным методом</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>7871</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1137322</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в плевральной жидкости культуральным методом </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1137330</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Идентификация в перитонеальной жидкости культуральным методом</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>7870</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1137330</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в перитонеальной жидкости культуральным методом </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1137231</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Идентификация в кале культуральным методом</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>7848</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1137231</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в кале культуральным методом </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1132893</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Идентификация в крови культуральным методом</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>7851</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1132893</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в крови культуральным методом </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1138072</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Идентификация в гнойном отделяемом культуральным методом</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>7845</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1138072</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в гнойном отделяемом культуральным методом </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1141365</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Идентификация в пунктате культуральным методом</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Бактериальный микроорганизм</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>7872</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1141365</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бактериальный микроорганизм, идентификация в пунктате культуральным методом </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1024074</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A26.09.002</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Идентификация в мокроте бактерископическими методами</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Кислотоустойчивые микобактерии</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>10462</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1024074</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кислотоустойчивые микобактерии, идентификация в мокроте бактерископическими методами </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1041409</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A12.06.045</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Концентрация в условных единицах в сыворотке или плазме крови</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Антитела к тиреоидной пероксидазе</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>7512</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1041409</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Определение содержания антител к тиреопероксидазе в крови (АТ-ТПО) </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>ед/мл</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1023241</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A26.20.001</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Обнаружение в отделяемом слизистой влагалища методом световой микроскопии</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Neisseria gonorrhoeae</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>3378</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1023241</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neisseria gonorrhoeae, обнаружение в отделяемом слизистой влагалища методом световой микроскопии </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1023290</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A26.20.001</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Обнаружение в отделяемом цервикального канала методом световой микроскопии</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Neisseria gonorrhoeae</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>3381</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1023290</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neisseria gonorrhoeae, обнаружение в отделяемом цервикального канала методом световой микроскопии </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1023332</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A26.20.001</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Обнаружение в отделяемом уретры методом световой микроскопии</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Neisseria gonorrhoeae</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>3380</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1023332</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neisseria gonorrhoeae, обнаружение в отделяемом уретры методом световой микроскопии </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1023233</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A26.20.017</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Обнаружение в отделяемом слизистой влагалища методом световой микроскопии</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Trichomonas vaginalis</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>4155</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1023233</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trichomonas vaginalis, обнаружение в отделяемом слизистой влагалища методом световой микроскопии </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1023282</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A26.20.017</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Обнаружение в отделяемом цервикального канала методом световой микроскопии</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Trichomonas vaginalis</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>4157</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1023282</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trichomonas vaginalis, обнаружение в отделяемом цервикального канала методом световой микроскопии </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
